--- a/app/Vendor/db/schema/budgets.xlsx
+++ b/app/Vendor/db/schema/budgets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>ColumnID</t>
   </si>
@@ -79,9 +79,6 @@
     <t>1: active</t>
   </si>
   <si>
-    <t>deleteReason</t>
-  </si>
-  <si>
     <t>削除理由</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>lineCd</t>
-  </si>
-  <si>
     <t>ラインCD</t>
   </si>
   <si>
@@ -157,22 +151,34 @@
     <t>結果</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>年度</t>
   </si>
   <si>
     <t>int(4)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>月</t>
   </si>
   <si>
     <t>int(2)</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>linecd</t>
+  </si>
+  <si>
+    <t>deletereason</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>説明</t>
   </si>
 </sst>
 </file>
@@ -661,48 +667,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,7 +721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1001,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,13 +1068,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1076,13 +1082,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1104,10 +1110,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1118,10 +1124,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1132,10 +1138,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1146,10 +1152,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1160,10 +1166,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1174,13 +1180,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1188,70 +1194,61 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1268,13 +1265,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1291,13 +1288,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1314,24 +1311,47 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
